--- a/biology/Zoologie/Archostemata/Archostemata.xlsx
+++ b/biology/Zoologie/Archostemata/Archostemata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archostemata sont un des quatre sous-ordres de coléoptères.
 Les Archostemata sont le plus petit sous-ordre de coléoptères. Moins de 50 espèces sont connues à ce jour et sont considérées comme rares et archaïques, avec de nombreuses caractéristiques primitives. Aujourd’hui cinq familles sont considérées, les Crowsoniellidae, les Cupedidae, les Jurodidae, les Micromalthidae (dont Micromalthus debilis est le seul représentant), et les Ommatidae.
@@ -512,15 +524,17 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 août 2014) :
 famille Crowsoniellidae Iablokoff-Khnzorian, 1983
 famille Cupedidae Laporte, 1836
 famille Jurodidae Ponomarenko, 1985
 famille Micromalthidae Barber, 1913
 famille Ommatidae Sharp &amp; Muir, 1912
-Selon NCBI  (27 août 2014)[2] :
+Selon NCBI  (27 août 2014) :
 famille Cupedidae
 genre Cupes
 Cupes capitatus
@@ -538,7 +552,7 @@
 famille Ommatidae
 genre Tetraphalerus
 Tetraphalerus bruchi
-Selon Paleobiology Database                   (27 août 2014)[3] :
+Selon Paleobiology Database                   (27 août 2014) :
 Crowsoniellidae
 Cupedidae
 Cupediformia
